--- a/docs/newMath.xlsx
+++ b/docs/newMath.xlsx
@@ -1,16 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28125"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Desktop/github/balancingBot/docs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F739E9-365A-2B43-A595-A6A7252EFDEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23120" windowHeight="16440" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Error</t>
   </si>
@@ -47,13 +61,31 @@
   <si>
     <t>Frac</t>
   </si>
+  <si>
+    <t>step/sec</t>
+  </si>
+  <si>
+    <t>Wheel Diam</t>
+  </si>
+  <si>
+    <t>inches</t>
+  </si>
+  <si>
+    <t>steps/rev</t>
+  </si>
+  <si>
+    <t>in/sec</t>
+  </si>
+  <si>
+    <t>rev/sec</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -107,9 +139,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -120,23 +153,61 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
+      <c14:style val="102"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="18"/>
+      <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -147,597 +218,323 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$10:$D$54</c:f>
+              <c:f>Sheet1!$A$10:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>-400.0</c:v>
+                  <c:v>-30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-300.0</c:v>
+                  <c:v>-20</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-285.0</c:v>
+                  <c:v>-19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-270.0</c:v>
+                  <c:v>-18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-255.0</c:v>
+                  <c:v>-17</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-240.0</c:v>
+                  <c:v>-16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-225.0</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-210.0</c:v>
+                  <c:v>-14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-195.0</c:v>
+                  <c:v>-13</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-180.0</c:v>
+                  <c:v>-12</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-165.0</c:v>
+                  <c:v>-11</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-150.0</c:v>
+                  <c:v>-10</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-135.0</c:v>
+                  <c:v>-9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-120.0</c:v>
+                  <c:v>-8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-105.0</c:v>
+                  <c:v>-7</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-90.0</c:v>
+                  <c:v>-6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-75.0</c:v>
+                  <c:v>-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-60.0</c:v>
+                  <c:v>-4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-45.0</c:v>
+                  <c:v>-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-30.0</c:v>
+                  <c:v>-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-15.0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.0</c:v>
+                  <c:v>-0.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>15.0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>30.0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45.0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>60.0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>75.0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>105.0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>120.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>135.0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>150.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>165.0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>195.0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>210.0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>225.0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>240.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>255.0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>270.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>285.0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>300.0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>400.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$10:$E$54</c:f>
+              <c:f>Sheet1!$I$10:$I$54</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="45"/>
                 <c:pt idx="0">
-                  <c:v>-391.5525672371638</c:v>
+                  <c:v>-57.977226628748646</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-387.2006472491909</c:v>
+                  <c:v>-38.651484419165755</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-386.2925170068027</c:v>
+                  <c:v>-35.678293309999169</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-385.2867383512545</c:v>
+                  <c:v>-33.129843787856366</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-384.1666666666666</c:v>
+                  <c:v>-30.921187535332606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-382.9116465863454</c:v>
+                  <c:v>-27.283400766469953</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-381.4957264957265</c:v>
+                  <c:v>-25.767656279443845</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-379.8858447488585</c:v>
+                  <c:v>-23.190890651499462</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-378.0392156862745</c:v>
+                  <c:v>-22.086562525237579</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-375.8994708994709</c:v>
+                  <c:v>-19.325742209582877</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-373.3908045977011</c:v>
+                  <c:v>-17.839146654999585</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-370.4088050314465</c:v>
+                  <c:v>-15.993717690689284</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-366.8055555555555</c:v>
+                  <c:v>-14.055085243333005</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-362.3643410852713</c:v>
+                  <c:v>-12.535616568378085</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-356.7543859649123</c:v>
+                  <c:v>-10.786460768139282</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-349.4444444444445</c:v>
+                  <c:v>-9.2763562605997834</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-339.5238095238095</c:v>
+                  <c:v>-7.7302968838331516</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-325.2898550724638</c:v>
+                  <c:v>-6.2678082841890426</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-303.1481481481482</c:v>
+                  <c:v>-4.8314355523957193</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-263.974358974359</c:v>
+                  <c:v>-3.4104250958087441</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-175.8333333333333</c:v>
+                  <c:v>-2.0706152367410229</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>206.1111111111111</c:v>
+                  <c:v>2.3908134692267482</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>206.1111111111111</c:v>
+                  <c:v>2.3908134692267482</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>206.1111111111111</c:v>
+                  <c:v>2.3908134692267482</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>175.8333333333333</c:v>
+                  <c:v>2.0614125023555072</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>263.974358974359</c:v>
+                  <c:v>3.3855314819707241</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>303.1481481481482</c:v>
+                  <c:v>4.7816269384534964</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>325.2898550724638</c:v>
+                  <c:v>6.1842375070665216</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>339.5238095238095</c:v>
+                  <c:v>7.6035707054096582</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>349.4444444444445</c:v>
+                  <c:v>9.0944669221566521</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>356.7543859649123</c:v>
+                  <c:v>10.541313932499753</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>362.3643410852713</c:v>
+                  <c:v>12.205731921841821</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>366.8055555555555</c:v>
+                  <c:v>13.641700383234976</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>370.4088050314465</c:v>
+                  <c:v>15.460593767666303</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>373.3908045977011</c:v>
+                  <c:v>17.178437519629231</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>375.8994708994709</c:v>
+                  <c:v>18.552712521199567</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>378.0392156862745</c:v>
+                  <c:v>21.082627864999505</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>379.8858447488585</c:v>
+                  <c:v>22.086562525237579</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>381.4957264957265</c:v>
+                  <c:v>24.411463843683642</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>382.9116465863454</c:v>
+                  <c:v>25.767656279443845</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>384.1666666666666</c:v>
+                  <c:v>28.988613314374323</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>385.2867383512545</c:v>
+                  <c:v>30.921187535332606</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>386.2925170068027</c:v>
+                  <c:v>33.129843787856366</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>387.2006472491909</c:v>
+                  <c:v>35.678293309999169</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>391.5525672371638</c:v>
+                  <c:v>51.535312558887689</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="47625">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$10:$D$54</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
-                <c:pt idx="0">
-                  <c:v>-400.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-300.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-285.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-270.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-255.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-240.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-225.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-210.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-195.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-180.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-165.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-150.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-135.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-120.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-105.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-90.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-75.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-60.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-45.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-30.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-15.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>90.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>105.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>120.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>135.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>150.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>165.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>180.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>195.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>210.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>225.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>240.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>270.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>285.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>300.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>400.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$F$10:$F$54</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="45"/>
-                <c:pt idx="0">
-                  <c:v>-8.447432762836172</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-12.79935275080908</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-13.70748299319729</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-14.71326164874552</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-15.83333333333331</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-17.0883534136546</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-18.5042735042735</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-20.11415525114154</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-21.96078431372547</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-24.10052910052912</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-26.60919540229884</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-29.59119496855345</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-33.19444444444446</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-37.63565891472865</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-43.24561403508772</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-50.55555555555554</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-60.47619047619048</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-74.71014492753624</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-96.85185185185185</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-136.025641025641</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-224.1666666666667</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>193.888888888889</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>193.888888888889</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>193.888888888889</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>224.1666666666667</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>136.025641025641</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>96.85185185185185</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>74.71014492753624</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>60.47619047619048</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>50.55555555555554</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>43.24561403508772</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>37.63565891472865</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33.19444444444446</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>29.59119496855345</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>26.60919540229884</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>24.10052910052912</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>21.96078431372547</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>20.11415525114154</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>18.5042735042735</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>17.0883534136546</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>15.83333333333331</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>14.71326164874552</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>13.70748299319729</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>12.79935275080908</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.447432762836172</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91A2-9D47-ADA1-AD003B03CBC3}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -747,76 +544,876 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2115428600"/>
-        <c:axId val="-2132642088"/>
+        <c:axId val="442808400"/>
+        <c:axId val="442810080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2115428600"/>
+        <c:axId val="442808400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angle Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132642088"/>
-        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442810080"/>
+        <c:crossesAt val="-60"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2132642088"/>
+        <c:axId val="442810080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Wheel Velocity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115428600"/>
-        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442808400"/>
+        <c:crossesAt val="-40"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46F76450-D806-CF4C-BE87-6A063A81FD33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1155,16 +1752,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1172,7 +1769,27 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <f>60/25.4</f>
+        <v>2.3622047244094491</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1186,7 +1803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1205,8 +1822,17 @@
       <c r="F9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-30</v>
       </c>
@@ -1226,12 +1852,24 @@
         <f>IF(D10&gt;0,405-(1/(D10+9))*5500,-405-(1/(D10-9))*5500)</f>
         <v>-391.55256723716383</v>
       </c>
-      <c r="F10" s="1">
-        <f>IF(E10&gt;0,400-E10,IF(E10&lt;0,-400-E10,0))</f>
-        <v>-8.4474327628361721</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="F10" s="2">
+        <f>IF(E10&gt;0,400-INT(E10),IF(E10&lt;0,-400-INT(E10),0))</f>
+        <v>-8</v>
+      </c>
+      <c r="G10" s="2">
+        <f>1/((F10)*0.00002)</f>
+        <v>-6249.9999999999991</v>
+      </c>
+      <c r="H10" s="1">
+        <f>G10/$B$3</f>
+        <v>-7.8124999999999991</v>
+      </c>
+      <c r="I10" s="2">
+        <f>H10*PI()*$B$2</f>
+        <v>-57.977226628748646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-20</v>
       </c>
@@ -1251,1084 +1889,1612 @@
         <f t="shared" ref="E11:E54" si="0">IF(D11&gt;0,405-(1/(D11+9))*5500,-405-(1/(D11-9))*5500)</f>
         <v>-387.20064724919092</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" ref="F11:F54" si="1">IF(E11&gt;0,400-E11,IF(E11&lt;0,-400-E11,0))</f>
-        <v>-12.799352750809078</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11" s="2">
+        <f t="shared" ref="F11:F54" si="1">IF(E11&gt;0,400-INT(E11),IF(E11&lt;0,-400-INT(E11),0))</f>
+        <v>-12</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ref="G11:G54" si="2">1/((F11)*0.00002)</f>
+        <v>-4166.6666666666661</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" ref="H11:H54" si="3">G11/$B$3</f>
+        <v>-5.2083333333333321</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" ref="I11:I54" si="4">H11*PI()*$B$2</f>
+        <v>-38.651484419165755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>-19</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B54" si="2">A12*$B$1</f>
+        <f t="shared" ref="B12:B54" si="5">A12*$B$1</f>
         <v>-285</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:C54" si="3">IF(B12&gt;400,400,IF(B12&lt;-400,-400,B12))</f>
+        <f t="shared" ref="C12:C54" si="6">IF(B12&gt;400,400,IF(B12&lt;-400,-400,B12))</f>
         <v>-285</v>
       </c>
       <c r="D12">
-        <f t="shared" ref="D12:D54" si="4">IF(C12&lt;5,IF(C12&gt;-5,0,C12),C12)</f>
+        <f t="shared" ref="D12:D54" si="7">IF(C12&lt;5,IF(C12&gt;-5,0,C12),C12)</f>
         <v>-285</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
         <v>-386.29251700680271</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>-13.707482993197289</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>-13</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>-3846.1538461538457</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.8076923076923075</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="4"/>
+        <v>-35.678293309999169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>-18</v>
       </c>
       <c r="B13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-270</v>
       </c>
       <c r="C13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-270</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-270</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
         <v>-385.28673835125448</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>-14.713261648745515</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>-14</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>-3571.4285714285711</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.4642857142857135</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="4"/>
+        <v>-33.129843787856366</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>-17</v>
       </c>
       <c r="B14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-255</v>
       </c>
       <c r="C14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-255</v>
       </c>
       <c r="D14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-255</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
         <v>-384.16666666666669</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
-        <v>-15.833333333333314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>-15</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="2"/>
+        <v>-3333.333333333333</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="3"/>
+        <v>-4.1666666666666661</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="4"/>
+        <v>-30.921187535332606</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>-16</v>
       </c>
       <c r="B15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-240</v>
       </c>
       <c r="C15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-240</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-240</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
         <v>-382.9116465863454</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>-17.088353413654602</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>-17</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="2"/>
+        <v>-2941.1764705882351</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.6764705882352939</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="4"/>
+        <v>-27.283400766469953</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>-15</v>
       </c>
       <c r="B16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-225</v>
       </c>
       <c r="C16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-225</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-225</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>-381.4957264957265</v>
       </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>-18.504273504273499</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>-18</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="2"/>
+        <v>-2777.7777777777778</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.4722222222222223</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="4"/>
+        <v>-25.767656279443845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>-14</v>
       </c>
       <c r="B17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-210</v>
       </c>
       <c r="C17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-210</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-210</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>-379.88584474885846</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>-20.11415525114154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>-20</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="2"/>
+        <v>-2500</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.125</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="4"/>
+        <v>-23.190890651499462</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>-13</v>
       </c>
       <c r="B18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-195</v>
       </c>
       <c r="C18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-195</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-195</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>-378.03921568627453</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="1"/>
-        <v>-21.960784313725469</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>-21</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="2"/>
+        <v>-2380.9523809523807</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.9761904761904758</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="4"/>
+        <v>-22.086562525237579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>-12</v>
       </c>
       <c r="B19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-180</v>
       </c>
       <c r="C19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-180</v>
       </c>
       <c r="D19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-180</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>-375.89947089947088</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="1"/>
-        <v>-24.100529100529116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>-24</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
+        <v>-2083.333333333333</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.6041666666666661</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="4"/>
+        <v>-19.325742209582877</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>-11</v>
       </c>
       <c r="B20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-165</v>
       </c>
       <c r="C20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-165</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-165</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>-373.39080459770116</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" si="1"/>
-        <v>-26.609195402298838</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>-26</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="2"/>
+        <v>-1923.0769230769229</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.4038461538461537</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="4"/>
+        <v>-17.839146654999585</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>-10</v>
       </c>
       <c r="B21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-150</v>
       </c>
       <c r="C21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-150</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-150</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>-370.40880503144655</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>-29.591194968553452</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>-29</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="2"/>
+        <v>-1724.1379310344828</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.1551724137931036</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="4"/>
+        <v>-15.993717690689284</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>-9</v>
       </c>
       <c r="B22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-135</v>
       </c>
       <c r="C22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-135</v>
       </c>
       <c r="D22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-135</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>-366.80555555555554</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="1"/>
-        <v>-33.194444444444457</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>-33</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="2"/>
+        <v>-1515.151515151515</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.8939393939393938</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="4"/>
+        <v>-14.055085243333005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>-8</v>
       </c>
       <c r="B23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-120</v>
       </c>
       <c r="C23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-120</v>
       </c>
       <c r="D23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-120</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>-362.36434108527135</v>
       </c>
-      <c r="F23" s="1">
-        <f t="shared" si="1"/>
-        <v>-37.635658914728651</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>-37</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="2"/>
+        <v>-1351.3513513513512</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.689189189189189</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="4"/>
+        <v>-12.535616568378085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>-7</v>
       </c>
       <c r="B24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-105</v>
       </c>
       <c r="C24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-105</v>
       </c>
       <c r="D24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-105</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>-356.75438596491227</v>
       </c>
-      <c r="F24" s="1">
-        <f t="shared" si="1"/>
-        <v>-43.245614035087726</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>-43</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="2"/>
+        <v>-1162.7906976744184</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.453488372093023</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="4"/>
+        <v>-10.786460768139282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>-6</v>
       </c>
       <c r="B25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-90</v>
       </c>
       <c r="C25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-90</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-90</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>-349.44444444444446</v>
       </c>
-      <c r="F25" s="1">
-        <f t="shared" si="1"/>
-        <v>-50.555555555555543</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>-50</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="2"/>
+        <v>-1000</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.25</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="4"/>
+        <v>-9.2763562605997834</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>-5</v>
       </c>
       <c r="B26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-75</v>
       </c>
       <c r="C26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-75</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-75</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
         <v>-339.52380952380952</v>
       </c>
-      <c r="F26" s="1">
-        <f t="shared" si="1"/>
-        <v>-60.476190476190482</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>-60</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="2"/>
+        <v>-833.33333333333326</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.0416666666666665</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="4"/>
+        <v>-7.7302968838331516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>-4</v>
       </c>
       <c r="B27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-60</v>
       </c>
       <c r="C27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-60</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-60</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
         <v>-325.28985507246375</v>
       </c>
-      <c r="F27" s="1">
-        <f t="shared" si="1"/>
-        <v>-74.710144927536248</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="F27" s="2">
+        <f t="shared" si="1"/>
+        <v>-74</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="2"/>
+        <v>-675.67567567567562</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.84459459459459452</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="4"/>
+        <v>-6.2678082841890426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>-3</v>
       </c>
       <c r="B28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-45</v>
       </c>
       <c r="C28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-45</v>
       </c>
       <c r="D28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-45</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
         <v>-303.14814814814815</v>
       </c>
-      <c r="F28" s="1">
-        <f t="shared" si="1"/>
-        <v>-96.851851851851848</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="F28" s="2">
+        <f t="shared" si="1"/>
+        <v>-96</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="2"/>
+        <v>-520.83333333333326</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.65104166666666652</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="4"/>
+        <v>-4.8314355523957193</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>-2</v>
       </c>
       <c r="B29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-30</v>
       </c>
       <c r="C29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-30</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-30</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
         <v>-263.97435897435901</v>
       </c>
-      <c r="F29" s="1">
-        <f t="shared" si="1"/>
-        <v>-136.02564102564099</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="F29" s="2">
+        <f t="shared" si="1"/>
+        <v>-136</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="2"/>
+        <v>-367.64705882352939</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.45955882352941174</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="4"/>
+        <v>-3.4104250958087441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>-1</v>
       </c>
       <c r="B30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-15</v>
       </c>
       <c r="C30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-15</v>
       </c>
       <c r="D30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>-15</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
         <v>-175.83333333333334</v>
       </c>
-      <c r="F30" s="1">
-        <f t="shared" si="1"/>
-        <v>-224.16666666666666</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="F30" s="2">
+        <f t="shared" si="1"/>
+        <v>-224</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="2"/>
+        <v>-223.21428571428569</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="3"/>
+        <v>-0.2790178571428571</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="4"/>
+        <v>-2.0706152367410229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>-0.2</v>
       </c>
       <c r="B31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>-3</v>
       </c>
       <c r="C31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-3</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
         <v>206.11111111111109</v>
       </c>
-      <c r="F31" s="1">
-        <f t="shared" si="1"/>
-        <v>193.88888888888891</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="F31" s="2">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="2"/>
+        <v>257.73195876288656</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="3"/>
+        <v>0.32216494845360821</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3908134692267482</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
       <c r="B32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="C32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="D32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
         <v>206.11111111111109</v>
       </c>
-      <c r="F32" s="1">
-        <f t="shared" si="1"/>
-        <v>193.88888888888891</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="F32" s="2">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="2"/>
+        <v>257.73195876288656</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="3"/>
+        <v>0.32216494845360821</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3908134692267482</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.2</v>
       </c>
       <c r="B33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="C33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
         <v>206.11111111111109</v>
       </c>
-      <c r="F33" s="1">
-        <f t="shared" si="1"/>
-        <v>193.88888888888891</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="F33" s="2">
+        <f t="shared" si="1"/>
+        <v>194</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="2"/>
+        <v>257.73195876288656</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="3"/>
+        <v>0.32216494845360821</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3908134692267482</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1</v>
       </c>
       <c r="B34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="C34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="D34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
         <v>175.83333333333334</v>
       </c>
-      <c r="F34" s="1">
-        <f t="shared" si="1"/>
-        <v>224.16666666666666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="F34" s="2">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="2"/>
+        <v>222.2222222222222</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="3"/>
+        <v>0.27777777777777773</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="4"/>
+        <v>2.0614125023555072</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>2</v>
       </c>
       <c r="B35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="C35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>30</v>
       </c>
       <c r="D35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>30</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
         <v>263.97435897435901</v>
       </c>
-      <c r="F35" s="1">
-        <f t="shared" si="1"/>
-        <v>136.02564102564099</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="F35" s="2">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="2"/>
+        <v>364.96350364963502</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="3"/>
+        <v>0.45620437956204379</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" si="4"/>
+        <v>3.3855314819707241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
       <c r="B36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="C36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
       <c r="D36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>45</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
         <v>303.14814814814815</v>
       </c>
-      <c r="F36" s="1">
-        <f t="shared" si="1"/>
-        <v>96.851851851851848</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="F36" s="2">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="2"/>
+        <v>515.46391752577313</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" si="3"/>
+        <v>0.64432989690721643</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="4"/>
+        <v>4.7816269384534964</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>4</v>
       </c>
       <c r="B37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="C37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="D37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>60</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
         <v>325.28985507246375</v>
       </c>
-      <c r="F37" s="1">
-        <f t="shared" si="1"/>
-        <v>74.710144927536248</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="F37" s="2">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="2"/>
+        <v>666.66666666666663</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" si="3"/>
+        <v>0.83333333333333326</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="4"/>
+        <v>6.1842375070665216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>5</v>
       </c>
       <c r="B38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
       <c r="C38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>75</v>
       </c>
       <c r="D38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>75</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
         <v>339.52380952380952</v>
       </c>
-      <c r="F38" s="1">
-        <f t="shared" si="1"/>
-        <v>60.476190476190482</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="F38" s="2">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="2"/>
+        <v>819.67213114754088</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="3"/>
+        <v>1.0245901639344261</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="4"/>
+        <v>7.6035707054096582</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>6</v>
       </c>
       <c r="B39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="C39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
       <c r="D39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="0"/>
         <v>349.44444444444446</v>
       </c>
-      <c r="F39" s="1">
-        <f t="shared" si="1"/>
-        <v>50.555555555555543</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39" s="2">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="G39" s="2">
+        <f t="shared" si="2"/>
+        <v>980.39215686274508</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2254901960784315</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="4"/>
+        <v>9.0944669221566521</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7</v>
       </c>
       <c r="B40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>105</v>
       </c>
       <c r="C40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>105</v>
       </c>
       <c r="D40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>105</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="0"/>
         <v>356.75438596491227</v>
       </c>
-      <c r="F40" s="1">
-        <f t="shared" si="1"/>
-        <v>43.245614035087726</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="F40" s="2">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="G40" s="2">
+        <f t="shared" si="2"/>
+        <v>1136.3636363636363</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" si="3"/>
+        <v>1.4204545454545454</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="4"/>
+        <v>10.541313932499753</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>8</v>
       </c>
       <c r="B41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="C41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
       <c r="D41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>120</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="0"/>
         <v>362.36434108527135</v>
       </c>
-      <c r="F41" s="1">
-        <f t="shared" si="1"/>
-        <v>37.635658914728651</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="F41" s="2">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G41" s="2">
+        <f t="shared" si="2"/>
+        <v>1315.7894736842104</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="3"/>
+        <v>1.6447368421052631</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="4"/>
+        <v>12.205731921841821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>9</v>
       </c>
       <c r="B42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>135</v>
       </c>
       <c r="C42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>135</v>
       </c>
       <c r="D42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>135</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="0"/>
         <v>366.80555555555554</v>
       </c>
-      <c r="F42" s="1">
-        <f t="shared" si="1"/>
-        <v>33.194444444444457</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="F42" s="2">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="G42" s="2">
+        <f t="shared" si="2"/>
+        <v>1470.5882352941176</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" si="3"/>
+        <v>1.838235294117647</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="4"/>
+        <v>13.641700383234976</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>10</v>
       </c>
       <c r="B43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="C43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>150</v>
       </c>
       <c r="D43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>150</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="0"/>
         <v>370.40880503144655</v>
       </c>
-      <c r="F43" s="1">
-        <f t="shared" si="1"/>
-        <v>29.591194968553452</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="F43" s="2">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="G43" s="2">
+        <f t="shared" si="2"/>
+        <v>1666.6666666666665</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" si="3"/>
+        <v>2.083333333333333</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="4"/>
+        <v>15.460593767666303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>11</v>
       </c>
       <c r="B44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>165</v>
       </c>
       <c r="C44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>165</v>
       </c>
       <c r="D44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>165</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="0"/>
         <v>373.39080459770116</v>
       </c>
-      <c r="F44" s="1">
-        <f t="shared" si="1"/>
-        <v>26.609195402298838</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44" s="2">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="G44" s="2">
+        <f t="shared" si="2"/>
+        <v>1851.8518518518517</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3148148148148149</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="4"/>
+        <v>17.178437519629231</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>12</v>
       </c>
       <c r="B45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="C45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>180</v>
       </c>
       <c r="D45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>180</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="0"/>
         <v>375.89947089947088</v>
       </c>
-      <c r="F45" s="1">
-        <f t="shared" si="1"/>
-        <v>24.100529100529116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45" s="2">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G45" s="2">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="4"/>
+        <v>18.552712521199567</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>13</v>
       </c>
       <c r="B46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>195</v>
       </c>
       <c r="C46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
       <c r="D46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>195</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="0"/>
         <v>378.03921568627453</v>
       </c>
-      <c r="F46" s="1">
-        <f t="shared" si="1"/>
-        <v>21.960784313725469</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46" s="2">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G46" s="2">
+        <f t="shared" si="2"/>
+        <v>2272.7272727272725</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="3"/>
+        <v>2.8409090909090908</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="4"/>
+        <v>21.082627864999505</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>14</v>
       </c>
       <c r="B47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="C47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>210</v>
       </c>
       <c r="D47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>210</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="0"/>
         <v>379.88584474885846</v>
       </c>
-      <c r="F47" s="1">
-        <f t="shared" si="1"/>
-        <v>20.11415525114154</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47" s="2">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="G47" s="2">
+        <f t="shared" si="2"/>
+        <v>2380.9523809523807</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="3"/>
+        <v>2.9761904761904758</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="4"/>
+        <v>22.086562525237579</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>15</v>
       </c>
       <c r="B48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="C48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>225</v>
       </c>
       <c r="D48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>225</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="0"/>
         <v>381.4957264957265</v>
       </c>
-      <c r="F48" s="1">
-        <f t="shared" si="1"/>
-        <v>18.504273504273499</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="F48" s="2">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="G48" s="2">
+        <f t="shared" si="2"/>
+        <v>2631.5789473684208</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2894736842105261</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="4"/>
+        <v>24.411463843683642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>16</v>
       </c>
       <c r="B49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>240</v>
       </c>
       <c r="C49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>240</v>
       </c>
       <c r="D49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>240</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="0"/>
         <v>382.9116465863454</v>
       </c>
-      <c r="F49" s="1">
-        <f t="shared" si="1"/>
-        <v>17.088353413654602</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="F49" s="2">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G49" s="2">
+        <f t="shared" si="2"/>
+        <v>2777.7777777777778</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="3"/>
+        <v>3.4722222222222223</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="4"/>
+        <v>25.767656279443845</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>17</v>
       </c>
       <c r="B50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>255</v>
       </c>
       <c r="C50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>255</v>
       </c>
       <c r="D50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>255</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="0"/>
         <v>384.16666666666669</v>
       </c>
-      <c r="F50" s="1">
-        <f t="shared" si="1"/>
-        <v>15.833333333333314</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="F50" s="2">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G50" s="2">
+        <f t="shared" si="2"/>
+        <v>3124.9999999999995</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="3"/>
+        <v>3.9062499999999996</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="4"/>
+        <v>28.988613314374323</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>18</v>
       </c>
       <c r="B51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>270</v>
       </c>
       <c r="C51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>270</v>
       </c>
       <c r="D51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>270</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="0"/>
         <v>385.28673835125448</v>
       </c>
-      <c r="F51" s="1">
-        <f t="shared" si="1"/>
-        <v>14.713261648745515</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="F51" s="2">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="G51" s="2">
+        <f t="shared" si="2"/>
+        <v>3333.333333333333</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="3"/>
+        <v>4.1666666666666661</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="4"/>
+        <v>30.921187535332606</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>19</v>
       </c>
       <c r="B52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>285</v>
       </c>
       <c r="C52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>285</v>
       </c>
       <c r="D52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>285</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="0"/>
         <v>386.29251700680271</v>
       </c>
-      <c r="F52" s="1">
-        <f t="shared" si="1"/>
-        <v>13.707482993197289</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="F52" s="2">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="G52" s="2">
+        <f t="shared" si="2"/>
+        <v>3571.4285714285711</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4642857142857135</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="4"/>
+        <v>33.129843787856366</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>20</v>
       </c>
       <c r="B53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="C53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>300</v>
       </c>
       <c r="D53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>300</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="0"/>
         <v>387.20064724919092</v>
       </c>
-      <c r="F53" s="1">
-        <f t="shared" si="1"/>
-        <v>12.799352750809078</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="F53" s="2">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G53" s="2">
+        <f t="shared" si="2"/>
+        <v>3846.1538461538457</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="3"/>
+        <v>4.8076923076923075</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="4"/>
+        <v>35.678293309999169</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>30</v>
       </c>
       <c r="B54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>450</v>
       </c>
       <c r="C54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>400</v>
       </c>
       <c r="D54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="0"/>
         <v>391.55256723716383</v>
       </c>
-      <c r="F54" s="1">
-        <f t="shared" si="1"/>
-        <v>8.4474327628361721</v>
+      <c r="F54" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G54" s="2">
+        <f t="shared" si="2"/>
+        <v>5555.5555555555557</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="3"/>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="4"/>
+        <v>51.535312558887689</v>
       </c>
     </row>
   </sheetData>

--- a/docs/newMath.xlsx
+++ b/docs/newMath.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10614"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Desktop/github/balancingBot/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F739E9-365A-2B43-A595-A6A7252EFDEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21FCA3D6-2418-2441-A843-DA3F231375AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="New" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>Error</t>
   </si>
@@ -56,12 +57,6 @@
     <t>Zone</t>
   </si>
   <si>
-    <t>Fric</t>
-  </si>
-  <si>
-    <t>Frac</t>
-  </si>
-  <si>
     <t>step/sec</t>
   </si>
   <si>
@@ -78,6 +73,45 @@
   </si>
   <si>
     <t>rev/sec</t>
+  </si>
+  <si>
+    <t>Notes:</t>
+  </si>
+  <si>
+    <t>"Limits Applied"  limits the gain term from exceeding +/- 400</t>
+  </si>
+  <si>
+    <t>"Dead Zone" creates a dead zone of 0 +/-5 where all values are set to 0</t>
+  </si>
+  <si>
+    <t>"Fric"</t>
+  </si>
+  <si>
+    <t>"Frac"</t>
+  </si>
+  <si>
+    <t>"steps/sec" = 1/(Frac * 0.00002)</t>
+  </si>
+  <si>
+    <t>Part 1</t>
+  </si>
+  <si>
+    <t>Part 2</t>
+  </si>
+  <si>
+    <t>Non-linear</t>
+  </si>
+  <si>
+    <t>Correction</t>
+  </si>
+  <si>
+    <t>NL Gain</t>
+  </si>
+  <si>
+    <t>NL Offset</t>
+  </si>
+  <si>
+    <t>Limits2</t>
   </si>
 </sst>
 </file>
@@ -139,10 +173,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -243,7 +278,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$10:$A$54</c:f>
+              <c:f>Sheet1!$A$14:$A$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="45"/>
@@ -387,7 +422,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$10:$I$54</c:f>
+              <c:f>Sheet1!$I$14:$I$58</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="45"/>
@@ -834,7 +869,1058 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>New</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>New!$A$14:$A$59</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-26.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>New!$H$14:$H$59</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="46"/>
+                <c:pt idx="0">
+                  <c:v>-51.535312558887689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-46.265826849741423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-34.786335977249188</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-33.047019178386719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-31.307702379524265</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-29.568385580661811</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-27.82906878179935</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-26.089751982936889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-24.350435184074421</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-22.611118385211967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-20.871801586349513</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-19.132484787487051</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-17.393167988624594</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-15.653851189762133</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-13.914534390899675</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-12.17521759203721</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-10.435900793174756</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-8.6965839943122969</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-6.9572671954498375</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-5.2179503965873781</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.4786335977249188</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.0614125023555072</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.0614125023555072</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.0614125023555072</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0614125023555072</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.0614125023555072</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4786335977249188</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.2179503965873781</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.9572671954498375</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.6965839943122969</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.435900793174756</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.17521759203721</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.914534390899675</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.653851189762133</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.393167988624594</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>19.132484787487051</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20.871801586349513</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.611118385211967</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.350435184074421</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>26.089751982936889</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27.82906878179935</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>29.568385580661811</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31.307702379524265</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33.047019178386719</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34.786335977249188</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>51.535312558887689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DD62-1641-A51E-E293DDA9AABB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Old</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$14:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>-30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>30</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$14:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>-57.977226628748646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-38.651484419165755</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-35.678293309999169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-33.129843787856366</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-30.921187535332606</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-27.283400766469953</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-25.767656279443845</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-23.190890651499462</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-22.086562525237579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-19.325742209582877</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-17.839146654999585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-15.993717690689284</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-14.055085243333005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-12.535616568378085</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-10.786460768139282</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.2763562605997834</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.7302968838331516</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-6.2678082841890426</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.8314355523957193</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.4104250958087441</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.0706152367410229</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.3908134692267482</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.3908134692267482</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.3908134692267482</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0614125023555072</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.3855314819707241</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7816269384534964</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.1842375070665216</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.6035707054096582</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0944669221566521</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.541313932499753</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.205731921841821</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>13.641700383234976</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.460593767666303</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17.178437519629231</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18.552712521199567</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.082627864999505</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>22.086562525237579</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.411463843683642</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25.767656279443845</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>28.988613314374323</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>30.921187535332606</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33.129843787856366</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35.678293309999169</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51.535312558887689</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DD62-1641-A51E-E293DDA9AABB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="442808400"/>
+        <c:axId val="442810080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="442808400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Angle Error</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442810080"/>
+        <c:crossesAt val="-60"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="442810080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Wheel Velocity</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442808400"/>
+        <c:crossesAt val="-40"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1390,19 +2476,535 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1415,6 +3017,49 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DC188F5-DB56-0E48-A46A-52DDDB85E7E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1753,10 +3398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1771,1728 +3416,1762 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <f>60/25.4</f>
         <v>2.3622047244094491</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>800</v>
       </c>
     </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B12" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B13" t="s">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C13" t="s">
         <v>3</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D13" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
         <v>7</v>
       </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10">
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>-30</v>
       </c>
-      <c r="B10">
-        <f>A10*$B$1</f>
+      <c r="B14">
+        <f>A14*$B$1</f>
         <v>-450</v>
       </c>
-      <c r="C10">
-        <f>IF(B10&gt;400,400,IF(B10&lt;-400,-400,B10))</f>
+      <c r="C14">
+        <f>IF(B14&gt;400,400,IF(B14&lt;-400,-400,B14))</f>
         <v>-400</v>
       </c>
-      <c r="D10">
-        <f>IF(C10&lt;5,IF(C10&gt;-5,0,C10),C10)</f>
+      <c r="D14">
+        <f>IF(C14&lt;5,IF(C14&gt;-5,0,C14),C14)</f>
         <v>-400</v>
       </c>
-      <c r="E10" s="1">
-        <f>IF(D10&gt;0,405-(1/(D10+9))*5500,-405-(1/(D10-9))*5500)</f>
+      <c r="E14" s="1">
+        <f>IF(D14&gt;0,405-(1/(D14+9))*5500,-405-(1/(D14-9))*5500)</f>
         <v>-391.55256723716383</v>
       </c>
-      <c r="F10" s="2">
-        <f>IF(E10&gt;0,400-INT(E10),IF(E10&lt;0,-400-INT(E10),0))</f>
+      <c r="F14" s="2">
+        <f>IF(E14&gt;0,400-INT(E14),IF(E14&lt;0,-400-INT(E14),0))</f>
         <v>-8</v>
       </c>
-      <c r="G10" s="2">
-        <f>1/((F10)*0.00002)</f>
+      <c r="G14" s="2">
+        <f>1/((F14)*0.00002)</f>
         <v>-6249.9999999999991</v>
       </c>
-      <c r="H10" s="1">
-        <f>G10/$B$3</f>
+      <c r="H14" s="1">
+        <f>G14/$B$3</f>
         <v>-7.8124999999999991</v>
       </c>
-      <c r="I10" s="2">
-        <f>H10*PI()*$B$2</f>
+      <c r="I14" s="2">
+        <f>H14*PI()*$B$2</f>
         <v>-57.977226628748646</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>-20</v>
       </c>
-      <c r="B11">
-        <f>A11*$B$1</f>
+      <c r="B15">
+        <f>A15*$B$1</f>
         <v>-300</v>
       </c>
-      <c r="C11">
-        <f>IF(B11&gt;400,400,IF(B11&lt;-400,-400,B11))</f>
+      <c r="C15">
+        <f>IF(B15&gt;400,400,IF(B15&lt;-400,-400,B15))</f>
         <v>-300</v>
       </c>
-      <c r="D11">
-        <f>IF(C11&lt;5,IF(C11&gt;-5,0,C11),C11)</f>
+      <c r="D15">
+        <f>IF(C15&lt;5,IF(C15&gt;-5,0,C15),C15)</f>
         <v>-300</v>
       </c>
-      <c r="E11" s="1">
-        <f t="shared" ref="E11:E54" si="0">IF(D11&gt;0,405-(1/(D11+9))*5500,-405-(1/(D11-9))*5500)</f>
+      <c r="E15" s="1">
+        <f t="shared" ref="E15:E58" si="0">IF(D15&gt;0,405-(1/(D15+9))*5500,-405-(1/(D15-9))*5500)</f>
         <v>-387.20064724919092</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" ref="F11:F54" si="1">IF(E11&gt;0,400-INT(E11),IF(E11&lt;0,-400-INT(E11),0))</f>
+      <c r="F15" s="2">
+        <f t="shared" ref="F15:F58" si="1">IF(E15&gt;0,400-INT(E15),IF(E15&lt;0,-400-INT(E15),0))</f>
         <v>-12</v>
       </c>
-      <c r="G11" s="2">
-        <f t="shared" ref="G11:G54" si="2">1/((F11)*0.00002)</f>
+      <c r="G15" s="2">
+        <f t="shared" ref="G15:G58" si="2">1/((F15)*0.00002)</f>
         <v>-4166.6666666666661</v>
       </c>
-      <c r="H11" s="1">
-        <f t="shared" ref="H11:H54" si="3">G11/$B$3</f>
+      <c r="H15" s="1">
+        <f t="shared" ref="H15:H58" si="3">G15/$B$3</f>
         <v>-5.2083333333333321</v>
       </c>
-      <c r="I11" s="2">
-        <f t="shared" ref="I11:I54" si="4">H11*PI()*$B$2</f>
+      <c r="I15" s="2">
+        <f t="shared" ref="I15:I58" si="4">H15*PI()*$B$2</f>
         <v>-38.651484419165755</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
         <v>-19</v>
       </c>
-      <c r="B12">
-        <f t="shared" ref="B12:B54" si="5">A12*$B$1</f>
+      <c r="B16">
+        <f t="shared" ref="B16:B58" si="5">A16*$B$1</f>
         <v>-285</v>
       </c>
-      <c r="C12">
-        <f t="shared" ref="C12:C54" si="6">IF(B12&gt;400,400,IF(B12&lt;-400,-400,B12))</f>
+      <c r="C16">
+        <f t="shared" ref="C16:C58" si="6">IF(B16&gt;400,400,IF(B16&lt;-400,-400,B16))</f>
         <v>-285</v>
       </c>
-      <c r="D12">
-        <f t="shared" ref="D12:D54" si="7">IF(C12&lt;5,IF(C12&gt;-5,0,C12),C12)</f>
+      <c r="D16">
+        <f t="shared" ref="D16:D58" si="7">IF(C16&lt;5,IF(C16&gt;-5,0,C16),C16)</f>
         <v>-285</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E16" s="1">
         <f t="shared" si="0"/>
         <v>-386.29251700680271</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F16" s="2">
         <f t="shared" si="1"/>
         <v>-13</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G16" s="2">
         <f t="shared" si="2"/>
         <v>-3846.1538461538457</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H16" s="1">
         <f t="shared" si="3"/>
         <v>-4.8076923076923075</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I16" s="2">
         <f t="shared" si="4"/>
         <v>-35.678293309999169</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
         <v>-18</v>
       </c>
-      <c r="B13">
+      <c r="B17">
         <f t="shared" si="5"/>
         <v>-270</v>
       </c>
-      <c r="C13">
+      <c r="C17">
         <f t="shared" si="6"/>
         <v>-270</v>
       </c>
-      <c r="D13">
+      <c r="D17">
         <f t="shared" si="7"/>
         <v>-270</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E17" s="1">
         <f t="shared" si="0"/>
         <v>-385.28673835125448</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F17" s="2">
         <f t="shared" si="1"/>
         <v>-14</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G17" s="2">
         <f t="shared" si="2"/>
         <v>-3571.4285714285711</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H17" s="1">
         <f t="shared" si="3"/>
         <v>-4.4642857142857135</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I17" s="2">
         <f t="shared" si="4"/>
         <v>-33.129843787856366</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>-17</v>
       </c>
-      <c r="B14">
+      <c r="B18">
         <f t="shared" si="5"/>
         <v>-255</v>
       </c>
-      <c r="C14">
+      <c r="C18">
         <f t="shared" si="6"/>
         <v>-255</v>
       </c>
-      <c r="D14">
+      <c r="D18">
         <f t="shared" si="7"/>
         <v>-255</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E18" s="1">
         <f t="shared" si="0"/>
         <v>-384.16666666666669</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
         <v>-15</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G18" s="2">
         <f t="shared" si="2"/>
         <v>-3333.333333333333</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H18" s="1">
         <f t="shared" si="3"/>
         <v>-4.1666666666666661</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I18" s="2">
         <f t="shared" si="4"/>
         <v>-30.921187535332606</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>-16</v>
       </c>
-      <c r="B15">
+      <c r="B19">
         <f t="shared" si="5"/>
         <v>-240</v>
       </c>
-      <c r="C15">
+      <c r="C19">
         <f t="shared" si="6"/>
         <v>-240</v>
       </c>
-      <c r="D15">
+      <c r="D19">
         <f t="shared" si="7"/>
         <v>-240</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E19" s="1">
         <f t="shared" si="0"/>
         <v>-382.9116465863454</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F19" s="2">
         <f t="shared" si="1"/>
         <v>-17</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G19" s="2">
         <f t="shared" si="2"/>
         <v>-2941.1764705882351</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H19" s="1">
         <f t="shared" si="3"/>
         <v>-3.6764705882352939</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I19" s="2">
         <f t="shared" si="4"/>
         <v>-27.283400766469953</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
         <v>-15</v>
       </c>
-      <c r="B16">
+      <c r="B20">
         <f t="shared" si="5"/>
         <v>-225</v>
       </c>
-      <c r="C16">
+      <c r="C20">
         <f t="shared" si="6"/>
         <v>-225</v>
       </c>
-      <c r="D16">
+      <c r="D20">
         <f t="shared" si="7"/>
         <v>-225</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E20" s="1">
         <f t="shared" si="0"/>
         <v>-381.4957264957265</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F20" s="2">
         <f t="shared" si="1"/>
         <v>-18</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G20" s="2">
         <f t="shared" si="2"/>
         <v>-2777.7777777777778</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H20" s="1">
         <f t="shared" si="3"/>
         <v>-3.4722222222222223</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I20" s="2">
         <f t="shared" si="4"/>
         <v>-25.767656279443845</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
         <v>-14</v>
       </c>
-      <c r="B17">
+      <c r="B21">
         <f t="shared" si="5"/>
         <v>-210</v>
       </c>
-      <c r="C17">
+      <c r="C21">
         <f t="shared" si="6"/>
         <v>-210</v>
       </c>
-      <c r="D17">
+      <c r="D21">
         <f t="shared" si="7"/>
         <v>-210</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>-379.88584474885846</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F21" s="2">
         <f t="shared" si="1"/>
         <v>-20</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G21" s="2">
         <f t="shared" si="2"/>
         <v>-2500</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H21" s="1">
         <f t="shared" si="3"/>
         <v>-3.125</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I21" s="2">
         <f t="shared" si="4"/>
         <v>-23.190890651499462</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>-13</v>
       </c>
-      <c r="B18">
+      <c r="B22">
         <f t="shared" si="5"/>
         <v>-195</v>
       </c>
-      <c r="C18">
+      <c r="C22">
         <f t="shared" si="6"/>
         <v>-195</v>
       </c>
-      <c r="D18">
+      <c r="D22">
         <f t="shared" si="7"/>
         <v>-195</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E22" s="1">
         <f t="shared" si="0"/>
         <v>-378.03921568627453</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F22" s="2">
         <f t="shared" si="1"/>
         <v>-21</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G22" s="2">
         <f t="shared" si="2"/>
         <v>-2380.9523809523807</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H22" s="1">
         <f t="shared" si="3"/>
         <v>-2.9761904761904758</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I22" s="2">
         <f t="shared" si="4"/>
         <v>-22.086562525237579</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>-12</v>
       </c>
-      <c r="B19">
+      <c r="B23">
         <f t="shared" si="5"/>
         <v>-180</v>
       </c>
-      <c r="C19">
+      <c r="C23">
         <f t="shared" si="6"/>
         <v>-180</v>
       </c>
-      <c r="D19">
+      <c r="D23">
         <f t="shared" si="7"/>
         <v>-180</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E23" s="1">
         <f t="shared" si="0"/>
         <v>-375.89947089947088</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F23" s="2">
         <f t="shared" si="1"/>
         <v>-24</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G23" s="2">
         <f t="shared" si="2"/>
         <v>-2083.333333333333</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H23" s="1">
         <f t="shared" si="3"/>
         <v>-2.6041666666666661</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I23" s="2">
         <f t="shared" si="4"/>
         <v>-19.325742209582877</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
         <v>-11</v>
       </c>
-      <c r="B20">
+      <c r="B24">
         <f t="shared" si="5"/>
         <v>-165</v>
       </c>
-      <c r="C20">
+      <c r="C24">
         <f t="shared" si="6"/>
         <v>-165</v>
       </c>
-      <c r="D20">
+      <c r="D24">
         <f t="shared" si="7"/>
         <v>-165</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E24" s="1">
         <f t="shared" si="0"/>
         <v>-373.39080459770116</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F24" s="2">
         <f t="shared" si="1"/>
         <v>-26</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G24" s="2">
         <f t="shared" si="2"/>
         <v>-1923.0769230769229</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H24" s="1">
         <f t="shared" si="3"/>
         <v>-2.4038461538461537</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I24" s="2">
         <f t="shared" si="4"/>
         <v>-17.839146654999585</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
         <v>-10</v>
       </c>
-      <c r="B21">
+      <c r="B25">
         <f t="shared" si="5"/>
         <v>-150</v>
       </c>
-      <c r="C21">
+      <c r="C25">
         <f t="shared" si="6"/>
         <v>-150</v>
       </c>
-      <c r="D21">
+      <c r="D25">
         <f t="shared" si="7"/>
         <v>-150</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E25" s="1">
         <f t="shared" si="0"/>
         <v>-370.40880503144655</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F25" s="2">
         <f t="shared" si="1"/>
         <v>-29</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G25" s="2">
         <f t="shared" si="2"/>
         <v>-1724.1379310344828</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H25" s="1">
         <f t="shared" si="3"/>
         <v>-2.1551724137931036</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I25" s="2">
         <f t="shared" si="4"/>
         <v>-15.993717690689284</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>-9</v>
       </c>
-      <c r="B22">
+      <c r="B26">
         <f t="shared" si="5"/>
         <v>-135</v>
       </c>
-      <c r="C22">
+      <c r="C26">
         <f t="shared" si="6"/>
         <v>-135</v>
       </c>
-      <c r="D22">
+      <c r="D26">
         <f t="shared" si="7"/>
         <v>-135</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E26" s="1">
         <f t="shared" si="0"/>
         <v>-366.80555555555554</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F26" s="2">
         <f t="shared" si="1"/>
         <v>-33</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G26" s="2">
         <f t="shared" si="2"/>
         <v>-1515.151515151515</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H26" s="1">
         <f t="shared" si="3"/>
         <v>-1.8939393939393938</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I26" s="2">
         <f t="shared" si="4"/>
         <v>-14.055085243333005</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
         <v>-8</v>
       </c>
-      <c r="B23">
+      <c r="B27">
         <f t="shared" si="5"/>
         <v>-120</v>
       </c>
-      <c r="C23">
+      <c r="C27">
         <f t="shared" si="6"/>
         <v>-120</v>
       </c>
-      <c r="D23">
+      <c r="D27">
         <f t="shared" si="7"/>
         <v>-120</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E27" s="1">
         <f t="shared" si="0"/>
         <v>-362.36434108527135</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F27" s="2">
         <f t="shared" si="1"/>
         <v>-37</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G27" s="2">
         <f t="shared" si="2"/>
         <v>-1351.3513513513512</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H27" s="1">
         <f t="shared" si="3"/>
         <v>-1.689189189189189</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I27" s="2">
         <f t="shared" si="4"/>
         <v>-12.535616568378085</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
         <v>-7</v>
       </c>
-      <c r="B24">
+      <c r="B28">
         <f t="shared" si="5"/>
         <v>-105</v>
       </c>
-      <c r="C24">
+      <c r="C28">
         <f t="shared" si="6"/>
         <v>-105</v>
       </c>
-      <c r="D24">
+      <c r="D28">
         <f t="shared" si="7"/>
         <v>-105</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E28" s="1">
         <f t="shared" si="0"/>
         <v>-356.75438596491227</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F28" s="2">
         <f t="shared" si="1"/>
         <v>-43</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G28" s="2">
         <f t="shared" si="2"/>
         <v>-1162.7906976744184</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H28" s="1">
         <f t="shared" si="3"/>
         <v>-1.453488372093023</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I28" s="2">
         <f t="shared" si="4"/>
         <v>-10.786460768139282</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
         <v>-6</v>
       </c>
-      <c r="B25">
+      <c r="B29">
         <f t="shared" si="5"/>
         <v>-90</v>
       </c>
-      <c r="C25">
+      <c r="C29">
         <f t="shared" si="6"/>
         <v>-90</v>
       </c>
-      <c r="D25">
+      <c r="D29">
         <f t="shared" si="7"/>
         <v>-90</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E29" s="1">
         <f t="shared" si="0"/>
         <v>-349.44444444444446</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F29" s="2">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G29" s="2">
         <f t="shared" si="2"/>
         <v>-1000</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H29" s="1">
         <f t="shared" si="3"/>
         <v>-1.25</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I29" s="2">
         <f t="shared" si="4"/>
         <v>-9.2763562605997834</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>-5</v>
       </c>
-      <c r="B26">
+      <c r="B30">
         <f t="shared" si="5"/>
         <v>-75</v>
       </c>
-      <c r="C26">
+      <c r="C30">
         <f t="shared" si="6"/>
         <v>-75</v>
       </c>
-      <c r="D26">
+      <c r="D30">
         <f t="shared" si="7"/>
         <v>-75</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E30" s="1">
         <f t="shared" si="0"/>
         <v>-339.52380952380952</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F30" s="2">
         <f t="shared" si="1"/>
         <v>-60</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G30" s="2">
         <f t="shared" si="2"/>
         <v>-833.33333333333326</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H30" s="1">
         <f t="shared" si="3"/>
         <v>-1.0416666666666665</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I30" s="2">
         <f t="shared" si="4"/>
         <v>-7.7302968838331516</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
         <v>-4</v>
       </c>
-      <c r="B27">
+      <c r="B31">
         <f t="shared" si="5"/>
         <v>-60</v>
       </c>
-      <c r="C27">
+      <c r="C31">
         <f t="shared" si="6"/>
         <v>-60</v>
       </c>
-      <c r="D27">
+      <c r="D31">
         <f t="shared" si="7"/>
         <v>-60</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E31" s="1">
         <f t="shared" si="0"/>
         <v>-325.28985507246375</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F31" s="2">
         <f t="shared" si="1"/>
         <v>-74</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G31" s="2">
         <f t="shared" si="2"/>
         <v>-675.67567567567562</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H31" s="1">
         <f t="shared" si="3"/>
         <v>-0.84459459459459452</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I31" s="2">
         <f t="shared" si="4"/>
         <v>-6.2678082841890426</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
         <v>-3</v>
       </c>
-      <c r="B28">
+      <c r="B32">
         <f t="shared" si="5"/>
         <v>-45</v>
       </c>
-      <c r="C28">
+      <c r="C32">
         <f t="shared" si="6"/>
         <v>-45</v>
       </c>
-      <c r="D28">
+      <c r="D32">
         <f t="shared" si="7"/>
         <v>-45</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E32" s="1">
         <f t="shared" si="0"/>
         <v>-303.14814814814815</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F32" s="2">
         <f t="shared" si="1"/>
         <v>-96</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G32" s="2">
         <f t="shared" si="2"/>
         <v>-520.83333333333326</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H32" s="1">
         <f t="shared" si="3"/>
         <v>-0.65104166666666652</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I32" s="2">
         <f t="shared" si="4"/>
         <v>-4.8314355523957193</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
         <v>-2</v>
       </c>
-      <c r="B29">
+      <c r="B33">
         <f t="shared" si="5"/>
         <v>-30</v>
       </c>
-      <c r="C29">
+      <c r="C33">
         <f t="shared" si="6"/>
         <v>-30</v>
       </c>
-      <c r="D29">
+      <c r="D33">
         <f t="shared" si="7"/>
         <v>-30</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E33" s="1">
         <f t="shared" si="0"/>
         <v>-263.97435897435901</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F33" s="2">
         <f t="shared" si="1"/>
         <v>-136</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G33" s="2">
         <f t="shared" si="2"/>
         <v>-367.64705882352939</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H33" s="1">
         <f t="shared" si="3"/>
         <v>-0.45955882352941174</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I33" s="2">
         <f t="shared" si="4"/>
         <v>-3.4104250958087441</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
         <v>-1</v>
       </c>
-      <c r="B30">
+      <c r="B34">
         <f t="shared" si="5"/>
         <v>-15</v>
       </c>
-      <c r="C30">
+      <c r="C34">
         <f t="shared" si="6"/>
         <v>-15</v>
       </c>
-      <c r="D30">
+      <c r="D34">
         <f t="shared" si="7"/>
         <v>-15</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E34" s="1">
         <f t="shared" si="0"/>
         <v>-175.83333333333334</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F34" s="2">
         <f t="shared" si="1"/>
         <v>-224</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G34" s="2">
         <f t="shared" si="2"/>
         <v>-223.21428571428569</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H34" s="1">
         <f t="shared" si="3"/>
         <v>-0.2790178571428571</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I34" s="2">
         <f t="shared" si="4"/>
         <v>-2.0706152367410229</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
         <v>-0.2</v>
       </c>
-      <c r="B31">
+      <c r="B35">
         <f t="shared" si="5"/>
         <v>-3</v>
       </c>
-      <c r="C31">
+      <c r="C35">
         <f t="shared" si="6"/>
         <v>-3</v>
       </c>
-      <c r="D31">
+      <c r="D35">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E35" s="1">
         <f t="shared" si="0"/>
         <v>206.11111111111109</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F35" s="2">
         <f t="shared" si="1"/>
         <v>194</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G35" s="2">
         <f t="shared" si="2"/>
         <v>257.73195876288656</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H35" s="1">
         <f t="shared" si="3"/>
         <v>0.32216494845360821</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I35" s="2">
         <f t="shared" si="4"/>
         <v>2.3908134692267482</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
         <v>0</v>
       </c>
-      <c r="B32">
+      <c r="B36">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="C32">
+      <c r="C36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="D32">
+      <c r="D36">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E36" s="1">
         <f t="shared" si="0"/>
         <v>206.11111111111109</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F36" s="2">
         <f t="shared" si="1"/>
         <v>194</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G36" s="2">
         <f t="shared" si="2"/>
         <v>257.73195876288656</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H36" s="1">
         <f t="shared" si="3"/>
         <v>0.32216494845360821</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I36" s="2">
         <f t="shared" si="4"/>
         <v>2.3908134692267482</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
         <v>0.2</v>
       </c>
-      <c r="B33">
+      <c r="B37">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="C33">
+      <c r="C37">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="D33">
+      <c r="D37">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E37" s="1">
         <f t="shared" si="0"/>
         <v>206.11111111111109</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F37" s="2">
         <f t="shared" si="1"/>
         <v>194</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G37" s="2">
         <f t="shared" si="2"/>
         <v>257.73195876288656</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H37" s="1">
         <f t="shared" si="3"/>
         <v>0.32216494845360821</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I37" s="2">
         <f t="shared" si="4"/>
         <v>2.3908134692267482</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
         <v>1</v>
       </c>
-      <c r="B34">
+      <c r="B38">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="C34">
+      <c r="C38">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="D34">
+      <c r="D38">
         <f t="shared" si="7"/>
         <v>15</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E38" s="1">
         <f t="shared" si="0"/>
         <v>175.83333333333334</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F38" s="2">
         <f t="shared" si="1"/>
         <v>225</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G38" s="2">
         <f t="shared" si="2"/>
         <v>222.2222222222222</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H38" s="1">
         <f t="shared" si="3"/>
         <v>0.27777777777777773</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I38" s="2">
         <f t="shared" si="4"/>
         <v>2.0614125023555072</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39">
         <v>2</v>
       </c>
-      <c r="B35">
+      <c r="B39">
         <f t="shared" si="5"/>
         <v>30</v>
       </c>
-      <c r="C35">
+      <c r="C39">
         <f t="shared" si="6"/>
         <v>30</v>
       </c>
-      <c r="D35">
+      <c r="D39">
         <f t="shared" si="7"/>
         <v>30</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E39" s="1">
         <f t="shared" si="0"/>
         <v>263.97435897435901</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F39" s="2">
         <f t="shared" si="1"/>
         <v>137</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G39" s="2">
         <f t="shared" si="2"/>
         <v>364.96350364963502</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H39" s="1">
         <f t="shared" si="3"/>
         <v>0.45620437956204379</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I39" s="2">
         <f t="shared" si="4"/>
         <v>3.3855314819707241</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40">
         <v>3</v>
       </c>
-      <c r="B36">
+      <c r="B40">
         <f t="shared" si="5"/>
         <v>45</v>
       </c>
-      <c r="C36">
+      <c r="C40">
         <f t="shared" si="6"/>
         <v>45</v>
       </c>
-      <c r="D36">
+      <c r="D40">
         <f t="shared" si="7"/>
         <v>45</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E40" s="1">
         <f t="shared" si="0"/>
         <v>303.14814814814815</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F40" s="2">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G40" s="2">
         <f t="shared" si="2"/>
         <v>515.46391752577313</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H40" s="1">
         <f t="shared" si="3"/>
         <v>0.64432989690721643</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I40" s="2">
         <f t="shared" si="4"/>
         <v>4.7816269384534964</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41">
         <v>4</v>
       </c>
-      <c r="B37">
+      <c r="B41">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="C37">
+      <c r="C41">
         <f t="shared" si="6"/>
         <v>60</v>
       </c>
-      <c r="D37">
+      <c r="D41">
         <f t="shared" si="7"/>
         <v>60</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E41" s="1">
         <f t="shared" si="0"/>
         <v>325.28985507246375</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F41" s="2">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G41" s="2">
         <f t="shared" si="2"/>
         <v>666.66666666666663</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H41" s="1">
         <f t="shared" si="3"/>
         <v>0.83333333333333326</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I41" s="2">
         <f t="shared" si="4"/>
         <v>6.1842375070665216</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42">
         <v>5</v>
       </c>
-      <c r="B38">
+      <c r="B42">
         <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="C38">
+      <c r="C42">
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="D38">
+      <c r="D42">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E42" s="1">
         <f t="shared" si="0"/>
         <v>339.52380952380952</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F42" s="2">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G42" s="2">
         <f t="shared" si="2"/>
         <v>819.67213114754088</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H42" s="1">
         <f t="shared" si="3"/>
         <v>1.0245901639344261</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I42" s="2">
         <f t="shared" si="4"/>
         <v>7.6035707054096582</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43">
         <v>6</v>
       </c>
-      <c r="B39">
+      <c r="B43">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="C39">
+      <c r="C43">
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="D39">
+      <c r="D43">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E43" s="1">
         <f t="shared" si="0"/>
         <v>349.44444444444446</v>
       </c>
-      <c r="F39" s="2">
+      <c r="F43" s="2">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G43" s="2">
         <f t="shared" si="2"/>
         <v>980.39215686274508</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H43" s="1">
         <f t="shared" si="3"/>
         <v>1.2254901960784315</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I43" s="2">
         <f t="shared" si="4"/>
         <v>9.0944669221566521</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44">
         <v>7</v>
       </c>
-      <c r="B40">
+      <c r="B44">
         <f t="shared" si="5"/>
         <v>105</v>
       </c>
-      <c r="C40">
+      <c r="C44">
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="D40">
+      <c r="D44">
         <f t="shared" si="7"/>
         <v>105</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E44" s="1">
         <f t="shared" si="0"/>
         <v>356.75438596491227</v>
       </c>
-      <c r="F40" s="2">
+      <c r="F44" s="2">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G44" s="2">
         <f t="shared" si="2"/>
         <v>1136.3636363636363</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H44" s="1">
         <f t="shared" si="3"/>
         <v>1.4204545454545454</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I44" s="2">
         <f t="shared" si="4"/>
         <v>10.541313932499753</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45">
         <v>8</v>
       </c>
-      <c r="B41">
+      <c r="B45">
         <f t="shared" si="5"/>
         <v>120</v>
       </c>
-      <c r="C41">
+      <c r="C45">
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="D41">
+      <c r="D45">
         <f t="shared" si="7"/>
         <v>120</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E45" s="1">
         <f t="shared" si="0"/>
         <v>362.36434108527135</v>
       </c>
-      <c r="F41" s="2">
+      <c r="F45" s="2">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G45" s="2">
         <f t="shared" si="2"/>
         <v>1315.7894736842104</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H45" s="1">
         <f t="shared" si="3"/>
         <v>1.6447368421052631</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I45" s="2">
         <f t="shared" si="4"/>
         <v>12.205731921841821</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46">
         <v>9</v>
       </c>
-      <c r="B42">
+      <c r="B46">
         <f t="shared" si="5"/>
         <v>135</v>
       </c>
-      <c r="C42">
+      <c r="C46">
         <f t="shared" si="6"/>
         <v>135</v>
       </c>
-      <c r="D42">
+      <c r="D46">
         <f t="shared" si="7"/>
         <v>135</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E46" s="1">
         <f t="shared" si="0"/>
         <v>366.80555555555554</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F46" s="2">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G46" s="2">
         <f t="shared" si="2"/>
         <v>1470.5882352941176</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H46" s="1">
         <f t="shared" si="3"/>
         <v>1.838235294117647</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I46" s="2">
         <f t="shared" si="4"/>
         <v>13.641700383234976</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47">
         <v>10</v>
       </c>
-      <c r="B43">
+      <c r="B47">
         <f t="shared" si="5"/>
         <v>150</v>
       </c>
-      <c r="C43">
+      <c r="C47">
         <f t="shared" si="6"/>
         <v>150</v>
       </c>
-      <c r="D43">
+      <c r="D47">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E47" s="1">
         <f t="shared" si="0"/>
         <v>370.40880503144655</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F47" s="2">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G47" s="2">
         <f t="shared" si="2"/>
         <v>1666.6666666666665</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H47" s="1">
         <f t="shared" si="3"/>
         <v>2.083333333333333</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I47" s="2">
         <f t="shared" si="4"/>
         <v>15.460593767666303</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48">
         <v>11</v>
       </c>
-      <c r="B44">
+      <c r="B48">
         <f t="shared" si="5"/>
         <v>165</v>
       </c>
-      <c r="C44">
+      <c r="C48">
         <f t="shared" si="6"/>
         <v>165</v>
       </c>
-      <c r="D44">
+      <c r="D48">
         <f t="shared" si="7"/>
         <v>165</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E48" s="1">
         <f t="shared" si="0"/>
         <v>373.39080459770116</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F48" s="2">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G48" s="2">
         <f t="shared" si="2"/>
         <v>1851.8518518518517</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H48" s="1">
         <f t="shared" si="3"/>
         <v>2.3148148148148149</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I48" s="2">
         <f t="shared" si="4"/>
         <v>17.178437519629231</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49">
         <v>12</v>
       </c>
-      <c r="B45">
+      <c r="B49">
         <f t="shared" si="5"/>
         <v>180</v>
       </c>
-      <c r="C45">
+      <c r="C49">
         <f t="shared" si="6"/>
         <v>180</v>
       </c>
-      <c r="D45">
+      <c r="D49">
         <f t="shared" si="7"/>
         <v>180</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E49" s="1">
         <f t="shared" si="0"/>
         <v>375.89947089947088</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F49" s="2">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G49" s="2">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H49" s="1">
         <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I49" s="2">
         <f t="shared" si="4"/>
         <v>18.552712521199567</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50">
         <v>13</v>
       </c>
-      <c r="B46">
+      <c r="B50">
         <f t="shared" si="5"/>
         <v>195</v>
       </c>
-      <c r="C46">
+      <c r="C50">
         <f t="shared" si="6"/>
         <v>195</v>
       </c>
-      <c r="D46">
+      <c r="D50">
         <f t="shared" si="7"/>
         <v>195</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E50" s="1">
         <f t="shared" si="0"/>
         <v>378.03921568627453</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F50" s="2">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G50" s="2">
         <f t="shared" si="2"/>
         <v>2272.7272727272725</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H50" s="1">
         <f t="shared" si="3"/>
         <v>2.8409090909090908</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I50" s="2">
         <f t="shared" si="4"/>
         <v>21.082627864999505</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51">
         <v>14</v>
       </c>
-      <c r="B47">
+      <c r="B51">
         <f t="shared" si="5"/>
         <v>210</v>
       </c>
-      <c r="C47">
+      <c r="C51">
         <f t="shared" si="6"/>
         <v>210</v>
       </c>
-      <c r="D47">
+      <c r="D51">
         <f t="shared" si="7"/>
         <v>210</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E51" s="1">
         <f t="shared" si="0"/>
         <v>379.88584474885846</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F51" s="2">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G51" s="2">
         <f t="shared" si="2"/>
         <v>2380.9523809523807</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H51" s="1">
         <f t="shared" si="3"/>
         <v>2.9761904761904758</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I51" s="2">
         <f t="shared" si="4"/>
         <v>22.086562525237579</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52">
         <v>15</v>
       </c>
-      <c r="B48">
+      <c r="B52">
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="C48">
+      <c r="C52">
         <f t="shared" si="6"/>
         <v>225</v>
       </c>
-      <c r="D48">
+      <c r="D52">
         <f t="shared" si="7"/>
         <v>225</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E52" s="1">
         <f t="shared" si="0"/>
         <v>381.4957264957265</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F52" s="2">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G52" s="2">
         <f t="shared" si="2"/>
         <v>2631.5789473684208</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H52" s="1">
         <f t="shared" si="3"/>
         <v>3.2894736842105261</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I52" s="2">
         <f t="shared" si="4"/>
         <v>24.411463843683642</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53">
         <v>16</v>
       </c>
-      <c r="B49">
+      <c r="B53">
         <f t="shared" si="5"/>
         <v>240</v>
       </c>
-      <c r="C49">
+      <c r="C53">
         <f t="shared" si="6"/>
         <v>240</v>
       </c>
-      <c r="D49">
+      <c r="D53">
         <f t="shared" si="7"/>
         <v>240</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E53" s="1">
         <f t="shared" si="0"/>
         <v>382.9116465863454</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F53" s="2">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G53" s="2">
         <f t="shared" si="2"/>
         <v>2777.7777777777778</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H53" s="1">
         <f t="shared" si="3"/>
         <v>3.4722222222222223</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I53" s="2">
         <f t="shared" si="4"/>
         <v>25.767656279443845</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54">
         <v>17</v>
       </c>
-      <c r="B50">
+      <c r="B54">
         <f t="shared" si="5"/>
         <v>255</v>
       </c>
-      <c r="C50">
+      <c r="C54">
         <f t="shared" si="6"/>
         <v>255</v>
       </c>
-      <c r="D50">
+      <c r="D54">
         <f t="shared" si="7"/>
         <v>255</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E54" s="1">
         <f t="shared" si="0"/>
         <v>384.16666666666669</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F54" s="2">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G54" s="2">
         <f t="shared" si="2"/>
         <v>3124.9999999999995</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H54" s="1">
         <f t="shared" si="3"/>
         <v>3.9062499999999996</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I54" s="2">
         <f t="shared" si="4"/>
         <v>28.988613314374323</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55">
         <v>18</v>
       </c>
-      <c r="B51">
+      <c r="B55">
         <f t="shared" si="5"/>
         <v>270</v>
       </c>
-      <c r="C51">
+      <c r="C55">
         <f t="shared" si="6"/>
         <v>270</v>
       </c>
-      <c r="D51">
+      <c r="D55">
         <f t="shared" si="7"/>
         <v>270</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E55" s="1">
         <f t="shared" si="0"/>
         <v>385.28673835125448</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F55" s="2">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G55" s="2">
         <f t="shared" si="2"/>
         <v>3333.333333333333</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H55" s="1">
         <f t="shared" si="3"/>
         <v>4.1666666666666661</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I55" s="2">
         <f t="shared" si="4"/>
         <v>30.921187535332606</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56">
         <v>19</v>
       </c>
-      <c r="B52">
+      <c r="B56">
         <f t="shared" si="5"/>
         <v>285</v>
       </c>
-      <c r="C52">
+      <c r="C56">
         <f t="shared" si="6"/>
         <v>285</v>
       </c>
-      <c r="D52">
+      <c r="D56">
         <f t="shared" si="7"/>
         <v>285</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E56" s="1">
         <f t="shared" si="0"/>
         <v>386.29251700680271</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F56" s="2">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G56" s="2">
         <f t="shared" si="2"/>
         <v>3571.4285714285711</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H56" s="1">
         <f t="shared" si="3"/>
         <v>4.4642857142857135</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I56" s="2">
         <f t="shared" si="4"/>
         <v>33.129843787856366</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57">
         <v>20</v>
       </c>
-      <c r="B53">
+      <c r="B57">
         <f t="shared" si="5"/>
         <v>300</v>
       </c>
-      <c r="C53">
+      <c r="C57">
         <f t="shared" si="6"/>
         <v>300</v>
       </c>
-      <c r="D53">
+      <c r="D57">
         <f t="shared" si="7"/>
         <v>300</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E57" s="1">
         <f t="shared" si="0"/>
         <v>387.20064724919092</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F57" s="2">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G57" s="2">
         <f t="shared" si="2"/>
         <v>3846.1538461538457</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H57" s="1">
         <f t="shared" si="3"/>
         <v>4.8076923076923075</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I57" s="2">
         <f t="shared" si="4"/>
         <v>35.678293309999169</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58">
         <v>30</v>
       </c>
-      <c r="B54">
+      <c r="B58">
         <f t="shared" si="5"/>
         <v>450</v>
       </c>
-      <c r="C54">
+      <c r="C58">
         <f t="shared" si="6"/>
         <v>400</v>
       </c>
-      <c r="D54">
+      <c r="D58">
         <f t="shared" si="7"/>
         <v>400</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E58" s="1">
         <f t="shared" si="0"/>
         <v>391.55256723716383</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F58" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G58" s="2">
         <f t="shared" si="2"/>
         <v>5555.5555555555557</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H58" s="1">
         <f t="shared" si="3"/>
         <v>6.9444444444444446</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I58" s="2">
         <f t="shared" si="4"/>
         <v>51.535312558887689</v>
       </c>
@@ -3507,4 +5186,1651 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6682692-7910-B642-95D0-9EB5241B1DB4}">
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="5" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1">
+        <f>60/25.4</f>
+        <v>2.3622047244094491</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="3">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>-30</v>
+      </c>
+      <c r="B14">
+        <f>A14*$B$1</f>
+        <v>-450</v>
+      </c>
+      <c r="C14" s="2">
+        <f>IF(A14=0,1200,(1/B14)*$B$9+SIGN(B14)*$B$10)</f>
+        <v>-8.8888888888888893</v>
+      </c>
+      <c r="D14" s="2">
+        <f>IF(ABS(C14)&lt;9,SIGN(C14)*9,C14)</f>
+        <v>-9</v>
+      </c>
+      <c r="E14" s="2">
+        <f>IF(ABS(D14)&gt;225,SIGN(D14)*225,D14)</f>
+        <v>-9</v>
+      </c>
+      <c r="F14" s="2">
+        <f>1/((E14)*0.00002)</f>
+        <v>-5555.5555555555557</v>
+      </c>
+      <c r="G14" s="1">
+        <f>F14/$B$3</f>
+        <v>-6.9444444444444446</v>
+      </c>
+      <c r="H14" s="2">
+        <f>G14*PI()*$B$2</f>
+        <v>-51.535312558887689</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>-26.6</v>
+      </c>
+      <c r="B15">
+        <f>A15*$B$1</f>
+        <v>-399</v>
+      </c>
+      <c r="C15" s="2">
+        <f>IF(A15=0,1200,(1/B15)*$B$9+SIGN(B15)*$B$10)</f>
+        <v>-10.025062656641603</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" ref="D15:D59" si="0">IF(ABS(C15)&lt;9,SIGN(C15)*9,C15)</f>
+        <v>-10.025062656641603</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" ref="E15:E59" si="1">IF(ABS(D15)&gt;225,SIGN(D15)*225,D15)</f>
+        <v>-10.025062656641603</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" ref="F15:F59" si="2">1/((E15)*0.00002)</f>
+        <v>-4987.5</v>
+      </c>
+      <c r="G15" s="1">
+        <f>F15/$B$3</f>
+        <v>-6.234375</v>
+      </c>
+      <c r="H15" s="2">
+        <f>G15*PI()*$B$2</f>
+        <v>-46.265826849741423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>-20</v>
+      </c>
+      <c r="B16">
+        <f>A16*$B$1</f>
+        <v>-300</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" ref="C16:C59" si="3">IF(A16=0,1200,(1/B16)*$B$9+SIGN(B16)*$B$10)</f>
+        <v>-13.333333333333334</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>-13.333333333333334</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="1"/>
+        <v>-13.333333333333334</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="2"/>
+        <v>-3750</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" ref="G16:G59" si="4">F16/$B$3</f>
+        <v>-4.6875</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" ref="H16:H59" si="5">G16*PI()*$B$2</f>
+        <v>-34.786335977249188</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>-19</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ref="B17:B59" si="6">A17*$B$1</f>
+        <v>-285</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="3"/>
+        <v>-14.035087719298247</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="0"/>
+        <v>-14.035087719298247</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="1"/>
+        <v>-14.035087719298247</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="2"/>
+        <v>-3562.4999999999995</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.4531249999999991</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="5"/>
+        <v>-33.047019178386719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>-18</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="6"/>
+        <v>-270</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="3"/>
+        <v>-14.814814814814815</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="0"/>
+        <v>-14.814814814814815</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="1"/>
+        <v>-14.814814814814815</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="2"/>
+        <v>-3374.9999999999995</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="4"/>
+        <v>-4.2187499999999991</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="5"/>
+        <v>-31.307702379524265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>-17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="6"/>
+        <v>-255</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="3"/>
+        <v>-15.686274509803921</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="0"/>
+        <v>-15.686274509803921</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>-15.686274509803921</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
+        <v>-3187.5</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.984375</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="5"/>
+        <v>-29.568385580661811</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>-16</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="6"/>
+        <v>-240</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="3"/>
+        <v>-16.666666666666668</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="0"/>
+        <v>-16.666666666666668</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="1"/>
+        <v>-16.666666666666668</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="2"/>
+        <v>-2999.9999999999995</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.7499999999999996</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="5"/>
+        <v>-27.82906878179935</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>-15</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="6"/>
+        <v>-225</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="3"/>
+        <v>-17.777777777777779</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="0"/>
+        <v>-17.777777777777779</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="1"/>
+        <v>-17.777777777777779</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="2"/>
+        <v>-2812.4999999999995</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.5156249999999996</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="5"/>
+        <v>-26.089751982936889</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>-14</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="6"/>
+        <v>-210</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="3"/>
+        <v>-19.047619047619051</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="0"/>
+        <v>-19.047619047619051</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="1"/>
+        <v>-19.047619047619051</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="2"/>
+        <v>-2624.9999999999991</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.2812499999999987</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="5"/>
+        <v>-24.350435184074421</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>-13</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="6"/>
+        <v>-195</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="3"/>
+        <v>-20.512820512820515</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="0"/>
+        <v>-20.512820512820515</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="1"/>
+        <v>-20.512820512820515</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="2"/>
+        <v>-2437.4999999999995</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="4"/>
+        <v>-3.0468749999999996</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="5"/>
+        <v>-22.611118385211967</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>-12</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="6"/>
+        <v>-180</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="3"/>
+        <v>-22.222222222222221</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="0"/>
+        <v>-22.222222222222221</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="1"/>
+        <v>-22.222222222222221</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="2"/>
+        <v>-2250</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.8125</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="5"/>
+        <v>-20.871801586349513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>-11</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="6"/>
+        <v>-165</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="3"/>
+        <v>-24.242424242424242</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="0"/>
+        <v>-24.242424242424242</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="1"/>
+        <v>-24.242424242424242</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="2"/>
+        <v>-2062.5</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.578125</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="5"/>
+        <v>-19.132484787487051</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>-10</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="6"/>
+        <v>-150</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="3"/>
+        <v>-26.666666666666668</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="0"/>
+        <v>-26.666666666666668</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="1"/>
+        <v>-26.666666666666668</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="2"/>
+        <v>-1875</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.34375</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="5"/>
+        <v>-17.393167988624594</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>-9</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="6"/>
+        <v>-135</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="3"/>
+        <v>-29.62962962962963</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="0"/>
+        <v>-29.62962962962963</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="1"/>
+        <v>-29.62962962962963</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" si="2"/>
+        <v>-1687.4999999999998</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="4"/>
+        <v>-2.1093749999999996</v>
+      </c>
+      <c r="H27" s="2">
+        <f t="shared" si="5"/>
+        <v>-15.653851189762133</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>-8</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="6"/>
+        <v>-120</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="3"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="0"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="1"/>
+        <v>-33.333333333333336</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" si="2"/>
+        <v>-1499.9999999999998</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.8749999999999998</v>
+      </c>
+      <c r="H28" s="2">
+        <f t="shared" si="5"/>
+        <v>-13.914534390899675</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>-7</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="6"/>
+        <v>-105</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="3"/>
+        <v>-38.095238095238102</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="0"/>
+        <v>-38.095238095238102</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="1"/>
+        <v>-38.095238095238102</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" si="2"/>
+        <v>-1312.4999999999995</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.6406249999999993</v>
+      </c>
+      <c r="H29" s="2">
+        <f t="shared" si="5"/>
+        <v>-12.17521759203721</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>-6</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="6"/>
+        <v>-90</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="3"/>
+        <v>-44.444444444444443</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="0"/>
+        <v>-44.444444444444443</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="1"/>
+        <v>-44.444444444444443</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" si="2"/>
+        <v>-1125</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.40625</v>
+      </c>
+      <c r="H30" s="2">
+        <f t="shared" si="5"/>
+        <v>-10.435900793174756</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-5</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="6"/>
+        <v>-75</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="3"/>
+        <v>-53.333333333333336</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="0"/>
+        <v>-53.333333333333336</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="1"/>
+        <v>-53.333333333333336</v>
+      </c>
+      <c r="F31" s="2">
+        <f t="shared" si="2"/>
+        <v>-937.5</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="4"/>
+        <v>-1.171875</v>
+      </c>
+      <c r="H31" s="2">
+        <f t="shared" si="5"/>
+        <v>-8.6965839943122969</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>-4</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="6"/>
+        <v>-60</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="3"/>
+        <v>-66.666666666666671</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="0"/>
+        <v>-66.666666666666671</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="1"/>
+        <v>-66.666666666666671</v>
+      </c>
+      <c r="F32" s="2">
+        <f t="shared" si="2"/>
+        <v>-749.99999999999989</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.93749999999999989</v>
+      </c>
+      <c r="H32" s="2">
+        <f t="shared" si="5"/>
+        <v>-6.9572671954498375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>-3</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="6"/>
+        <v>-45</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="3"/>
+        <v>-88.888888888888886</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="0"/>
+        <v>-88.888888888888886</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="1"/>
+        <v>-88.888888888888886</v>
+      </c>
+      <c r="F33" s="2">
+        <f t="shared" si="2"/>
+        <v>-562.5</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.703125</v>
+      </c>
+      <c r="H33" s="2">
+        <f t="shared" si="5"/>
+        <v>-5.2179503965873781</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>-2</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="6"/>
+        <v>-30</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="3"/>
+        <v>-133.33333333333334</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="0"/>
+        <v>-133.33333333333334</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="1"/>
+        <v>-133.33333333333334</v>
+      </c>
+      <c r="F34" s="2">
+        <f t="shared" si="2"/>
+        <v>-374.99999999999994</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.46874999999999994</v>
+      </c>
+      <c r="H34" s="2">
+        <f t="shared" si="5"/>
+        <v>-3.4786335977249188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>-1</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="6"/>
+        <v>-15</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="3"/>
+        <v>-266.66666666666669</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="0"/>
+        <v>-266.66666666666669</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="1"/>
+        <v>-225</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="2"/>
+        <v>-222.2222222222222</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.27777777777777773</v>
+      </c>
+      <c r="H35" s="2">
+        <f t="shared" si="5"/>
+        <v>-2.0614125023555072</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>-0.2</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="6"/>
+        <v>-3</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="3"/>
+        <v>-1333.3333333333333</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="0"/>
+        <v>-1333.3333333333333</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="1"/>
+        <v>-225</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="2"/>
+        <v>-222.2222222222222</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="4"/>
+        <v>-0.27777777777777773</v>
+      </c>
+      <c r="H36" s="2">
+        <f t="shared" si="5"/>
+        <v>-2.0614125023555072</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="3"/>
+        <v>1200</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="0"/>
+        <v>1200</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="2"/>
+        <v>222.2222222222222</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="4"/>
+        <v>0.27777777777777773</v>
+      </c>
+      <c r="H37" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0614125023555072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.2</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="3"/>
+        <v>1333.3333333333333</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="0"/>
+        <v>1333.3333333333333</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="2"/>
+        <v>222.2222222222222</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="4"/>
+        <v>0.27777777777777773</v>
+      </c>
+      <c r="H38" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0614125023555072</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="3"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="0"/>
+        <v>266.66666666666669</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="F39" s="2">
+        <f t="shared" si="2"/>
+        <v>222.2222222222222</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="4"/>
+        <v>0.27777777777777773</v>
+      </c>
+      <c r="H39" s="2">
+        <f t="shared" si="5"/>
+        <v>2.0614125023555072</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="3"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="0"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="F40" s="2">
+        <f t="shared" si="2"/>
+        <v>374.99999999999994</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="4"/>
+        <v>0.46874999999999994</v>
+      </c>
+      <c r="H40" s="2">
+        <f t="shared" si="5"/>
+        <v>3.4786335977249188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="3"/>
+        <v>88.888888888888886</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="0"/>
+        <v>88.888888888888886</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="1"/>
+        <v>88.888888888888886</v>
+      </c>
+      <c r="F41" s="2">
+        <f t="shared" si="2"/>
+        <v>562.5</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="4"/>
+        <v>0.703125</v>
+      </c>
+      <c r="H41" s="2">
+        <f t="shared" si="5"/>
+        <v>5.2179503965873781</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>4</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="3"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="1"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="F42" s="2">
+        <f t="shared" si="2"/>
+        <v>749.99999999999989</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="4"/>
+        <v>0.93749999999999989</v>
+      </c>
+      <c r="H42" s="2">
+        <f t="shared" si="5"/>
+        <v>6.9572671954498375</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="3"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="0"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="1"/>
+        <v>53.333333333333336</v>
+      </c>
+      <c r="F43" s="2">
+        <f t="shared" si="2"/>
+        <v>937.5</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="4"/>
+        <v>1.171875</v>
+      </c>
+      <c r="H43" s="2">
+        <f t="shared" si="5"/>
+        <v>8.6965839943122969</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>6</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="3"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="0"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="1"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="F44" s="2">
+        <f t="shared" si="2"/>
+        <v>1125</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="4"/>
+        <v>1.40625</v>
+      </c>
+      <c r="H44" s="2">
+        <f t="shared" si="5"/>
+        <v>10.435900793174756</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="6"/>
+        <v>105</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="3"/>
+        <v>38.095238095238102</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="0"/>
+        <v>38.095238095238102</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="1"/>
+        <v>38.095238095238102</v>
+      </c>
+      <c r="F45" s="2">
+        <f t="shared" si="2"/>
+        <v>1312.4999999999995</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="4"/>
+        <v>1.6406249999999993</v>
+      </c>
+      <c r="H45" s="2">
+        <f t="shared" si="5"/>
+        <v>12.17521759203721</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="3"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="F46" s="2">
+        <f t="shared" si="2"/>
+        <v>1499.9999999999998</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="4"/>
+        <v>1.8749999999999998</v>
+      </c>
+      <c r="H46" s="2">
+        <f t="shared" si="5"/>
+        <v>13.914534390899675</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="6"/>
+        <v>135</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="3"/>
+        <v>29.62962962962963</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" si="0"/>
+        <v>29.62962962962963</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="1"/>
+        <v>29.62962962962963</v>
+      </c>
+      <c r="F47" s="2">
+        <f t="shared" si="2"/>
+        <v>1687.4999999999998</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1093749999999996</v>
+      </c>
+      <c r="H47" s="2">
+        <f t="shared" si="5"/>
+        <v>15.653851189762133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="6"/>
+        <v>150</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="3"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" si="0"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="1"/>
+        <v>26.666666666666668</v>
+      </c>
+      <c r="F48" s="2">
+        <f t="shared" si="2"/>
+        <v>1875</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="4"/>
+        <v>2.34375</v>
+      </c>
+      <c r="H48" s="2">
+        <f t="shared" si="5"/>
+        <v>17.393167988624594</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="6"/>
+        <v>165</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="3"/>
+        <v>24.242424242424242</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="0"/>
+        <v>24.242424242424242</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="1"/>
+        <v>24.242424242424242</v>
+      </c>
+      <c r="F49" s="2">
+        <f t="shared" si="2"/>
+        <v>2062.5</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="4"/>
+        <v>2.578125</v>
+      </c>
+      <c r="H49" s="2">
+        <f t="shared" si="5"/>
+        <v>19.132484787487051</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="6"/>
+        <v>180</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="3"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" si="0"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="1"/>
+        <v>22.222222222222221</v>
+      </c>
+      <c r="F50" s="2">
+        <f t="shared" si="2"/>
+        <v>2250</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="4"/>
+        <v>2.8125</v>
+      </c>
+      <c r="H50" s="2">
+        <f t="shared" si="5"/>
+        <v>20.871801586349513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="6"/>
+        <v>195</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="3"/>
+        <v>20.512820512820515</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" si="0"/>
+        <v>20.512820512820515</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="1"/>
+        <v>20.512820512820515</v>
+      </c>
+      <c r="F51" s="2">
+        <f t="shared" si="2"/>
+        <v>2437.4999999999995</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0468749999999996</v>
+      </c>
+      <c r="H51" s="2">
+        <f t="shared" si="5"/>
+        <v>22.611118385211967</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="3"/>
+        <v>19.047619047619051</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" si="0"/>
+        <v>19.047619047619051</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="1"/>
+        <v>19.047619047619051</v>
+      </c>
+      <c r="F52" s="2">
+        <f t="shared" si="2"/>
+        <v>2624.9999999999991</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="4"/>
+        <v>3.2812499999999987</v>
+      </c>
+      <c r="H52" s="2">
+        <f t="shared" si="5"/>
+        <v>24.350435184074421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="6"/>
+        <v>225</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="3"/>
+        <v>17.777777777777779</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" si="0"/>
+        <v>17.777777777777779</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="1"/>
+        <v>17.777777777777779</v>
+      </c>
+      <c r="F53" s="2">
+        <f t="shared" si="2"/>
+        <v>2812.4999999999995</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="4"/>
+        <v>3.5156249999999996</v>
+      </c>
+      <c r="H53" s="2">
+        <f t="shared" si="5"/>
+        <v>26.089751982936889</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="6"/>
+        <v>240</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="3"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="F54" s="2">
+        <f t="shared" si="2"/>
+        <v>2999.9999999999995</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="4"/>
+        <v>3.7499999999999996</v>
+      </c>
+      <c r="H54" s="2">
+        <f t="shared" si="5"/>
+        <v>27.82906878179935</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>17</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="6"/>
+        <v>255</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="3"/>
+        <v>15.686274509803921</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" si="0"/>
+        <v>15.686274509803921</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="1"/>
+        <v>15.686274509803921</v>
+      </c>
+      <c r="F55" s="2">
+        <f t="shared" si="2"/>
+        <v>3187.5</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="4"/>
+        <v>3.984375</v>
+      </c>
+      <c r="H55" s="2">
+        <f t="shared" si="5"/>
+        <v>29.568385580661811</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>18</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="3"/>
+        <v>14.814814814814815</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" si="0"/>
+        <v>14.814814814814815</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="1"/>
+        <v>14.814814814814815</v>
+      </c>
+      <c r="F56" s="2">
+        <f t="shared" si="2"/>
+        <v>3374.9999999999995</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="4"/>
+        <v>4.2187499999999991</v>
+      </c>
+      <c r="H56" s="2">
+        <f t="shared" si="5"/>
+        <v>31.307702379524265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>19</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="6"/>
+        <v>285</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="3"/>
+        <v>14.035087719298247</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="0"/>
+        <v>14.035087719298247</v>
+      </c>
+      <c r="E57" s="2">
+        <f t="shared" si="1"/>
+        <v>14.035087719298247</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" si="2"/>
+        <v>3562.4999999999995</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="4"/>
+        <v>4.4531249999999991</v>
+      </c>
+      <c r="H57" s="2">
+        <f t="shared" si="5"/>
+        <v>33.047019178386719</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>20</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="6"/>
+        <v>300</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="3"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="0"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" si="2"/>
+        <v>3750</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="4"/>
+        <v>4.6875</v>
+      </c>
+      <c r="H58" s="2">
+        <f t="shared" si="5"/>
+        <v>34.786335977249188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="3"/>
+        <v>8.8888888888888893</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" si="2"/>
+        <v>5555.5555555555557</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="4"/>
+        <v>6.9444444444444446</v>
+      </c>
+      <c r="H59" s="2">
+        <f t="shared" si="5"/>
+        <v>51.535312558887689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>